--- a/Database Design.xlsx
+++ b/Database Design.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BKIT-JAVA\2.JAVA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BKIT-JAVA\3.DATABASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2734A4-AEF6-4D89-BDAD-DE3B01D0DFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B45BBDE-0770-4D8F-864E-5B08DAB39497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="588" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2494,13 +2494,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AH61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AB48" sqref="Y47:AB48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="4" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
     <col min="33" max="33" width="17.6640625" customWidth="1"/>
     <col min="34" max="34" width="16" customWidth="1"/>
   </cols>
